--- a/output/55/Расписание_Итог_14.xlsx
+++ b/output/55/Расписание_Итог_14.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="10500" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12180" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="43">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -39,48 +39,12 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
       <color indexed="8"/>
       <sz val="12"/>
     </font>
@@ -97,14 +61,21 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="204"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <charset val="0"/>
       <color indexed="8"/>
       <sz val="12"/>
     </font>
@@ -125,12 +96,6 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
@@ -155,45 +120,8 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -229,6 +157,13 @@
       <charset val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -381,18 +316,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1475,137 +1404,137 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="45" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="46" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="48" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="44" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="45" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="44" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="46" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,13 +1661,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1747,577 +1707,273 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2858,15 +2514,15 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.138888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1" s="243">
+    <row r="1" ht="15.75" customHeight="1" s="146">
       <c r="A1" s="46" t="inlineStr">
         <is>
           <t>Наряд</t>
         </is>
       </c>
-      <c r="B1" s="244" t="inlineStr">
+      <c r="B1" s="147" t="inlineStr">
         <is>
           <t>Ном. ПС</t>
         </is>
@@ -2876,1711 +2532,1711 @@
           <t>1 смена</t>
         </is>
       </c>
-      <c r="D1" s="245" t="n"/>
-      <c r="E1" s="245" t="n"/>
-      <c r="F1" s="245" t="n"/>
-      <c r="G1" s="246" t="n"/>
+      <c r="D1" s="148" t="n"/>
+      <c r="E1" s="148" t="n"/>
+      <c r="F1" s="148" t="n"/>
+      <c r="G1" s="149" t="n"/>
       <c r="H1" s="46" t="inlineStr">
         <is>
           <t>2 смена</t>
         </is>
       </c>
-      <c r="I1" s="245" t="n"/>
-      <c r="J1" s="245" t="n"/>
-      <c r="K1" s="245" t="n"/>
-      <c r="L1" s="246" t="n"/>
-    </row>
-    <row r="2" ht="15.6" customHeight="1" s="243">
-      <c r="A2" s="247" t="n"/>
-      <c r="B2" s="247" t="n"/>
+      <c r="I1" s="148" t="n"/>
+      <c r="J1" s="148" t="n"/>
+      <c r="K1" s="148" t="n"/>
+      <c r="L1" s="149" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="146">
+      <c r="A2" s="150" t="n"/>
+      <c r="B2" s="150" t="n"/>
       <c r="C2" s="46" t="inlineStr">
         <is>
           <t>Таб. №</t>
         </is>
       </c>
-      <c r="D2" s="245" t="n"/>
-      <c r="E2" s="246" t="n"/>
+      <c r="D2" s="148" t="n"/>
+      <c r="E2" s="149" t="n"/>
       <c r="F2" s="46" t="inlineStr">
         <is>
           <t>Нач./Оконч.</t>
         </is>
       </c>
-      <c r="G2" s="246" t="n"/>
+      <c r="G2" s="149" t="n"/>
       <c r="H2" s="46" t="inlineStr">
         <is>
           <t>Таб. №</t>
         </is>
       </c>
-      <c r="I2" s="245" t="n"/>
-      <c r="J2" s="246" t="n"/>
+      <c r="I2" s="148" t="n"/>
+      <c r="J2" s="149" t="n"/>
       <c r="K2" s="46" t="inlineStr">
         <is>
           <t>Нач./Оконч.</t>
         </is>
       </c>
-      <c r="L2" s="246" t="n"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1" s="243">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="49" t="n"/>
-      <c r="C3" s="49" t="n"/>
-      <c r="D3" s="49" t="n"/>
-      <c r="E3" s="49" t="n"/>
-      <c r="F3" s="49" t="n"/>
-      <c r="G3" s="49" t="n"/>
-      <c r="H3" s="49" t="n"/>
-      <c r="I3" s="49" t="n"/>
-      <c r="J3" s="49" t="n"/>
-      <c r="K3" s="49" t="n"/>
-      <c r="L3" s="49" t="n"/>
-    </row>
-    <row r="4" ht="15.6" customHeight="1" s="243">
-      <c r="A4" s="50" t="inlineStr">
+      <c r="L2" s="149" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="146">
+      <c r="A3" s="15" t="n"/>
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n"/>
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="15" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="146">
+      <c r="A4" s="49" t="inlineStr">
         <is>
           <t>Маршрут 55       ул. Шаврова - Придорожная аллея. Смены на к/ст ул. Шаврова</t>
         </is>
       </c>
-      <c r="B4" s="248" t="n"/>
-      <c r="C4" s="248" t="n"/>
-      <c r="D4" s="248" t="n"/>
-      <c r="E4" s="248" t="n"/>
-      <c r="F4" s="248" t="n"/>
-      <c r="G4" s="248" t="n"/>
-      <c r="H4" s="248" t="n"/>
-      <c r="I4" s="248" t="n"/>
-      <c r="J4" s="248" t="n"/>
-      <c r="K4" s="248" t="n"/>
-      <c r="L4" s="248" t="n"/>
-    </row>
-    <row r="5" ht="15.6" customHeight="1" s="243">
-      <c r="A5" s="249" t="inlineStr">
+      <c r="B4" s="151" t="n"/>
+      <c r="C4" s="151" t="n"/>
+      <c r="D4" s="151" t="n"/>
+      <c r="E4" s="151" t="n"/>
+      <c r="F4" s="151" t="n"/>
+      <c r="G4" s="151" t="n"/>
+      <c r="H4" s="151" t="n"/>
+      <c r="I4" s="151" t="n"/>
+      <c r="J4" s="151" t="n"/>
+      <c r="K4" s="151" t="n"/>
+      <c r="L4" s="151" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="146">
+      <c r="A5" s="152" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" s="250" t="n"/>
-      <c r="C5" s="54" t="inlineStr">
-        <is>
-          <t>20607</t>
-        </is>
-      </c>
-      <c r="D5" s="251" t="n"/>
-      <c r="E5" s="251" t="n"/>
-      <c r="F5" s="55" t="inlineStr">
+      <c r="B5" s="153" t="n"/>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>10480</t>
+        </is>
+      </c>
+      <c r="D5" s="154" t="n"/>
+      <c r="E5" s="154" t="n"/>
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>04:43</t>
         </is>
       </c>
-      <c r="G5" s="55" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>12:42</t>
         </is>
       </c>
-      <c r="H5" s="54" t="inlineStr">
-        <is>
-          <t>20043</t>
-        </is>
-      </c>
-      <c r="I5" s="251" t="n"/>
-      <c r="J5" s="251" t="n"/>
-      <c r="K5" s="55" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>6356</t>
+        </is>
+      </c>
+      <c r="I5" s="154" t="n"/>
+      <c r="J5" s="154" t="n"/>
+      <c r="K5" s="7" t="inlineStr">
         <is>
           <t>12:42</t>
         </is>
       </c>
-      <c r="L5" s="75" t="inlineStr">
+      <c r="L5" s="24" t="inlineStr">
         <is>
           <t>21:33</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.6" customHeight="1" s="243">
-      <c r="A6" s="252" t="n"/>
-      <c r="B6" s="248" t="n"/>
-      <c r="C6" s="58" t="n"/>
-      <c r="D6" s="248" t="n"/>
-      <c r="E6" s="248" t="n"/>
-      <c r="F6" s="59" t="inlineStr">
+    <row r="6" ht="15.75" customHeight="1" s="146">
+      <c r="A6" s="155" t="n"/>
+      <c r="B6" s="151" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="151" t="n"/>
+      <c r="E6" s="151" t="n"/>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="G6" s="59" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="H6" s="58" t="n"/>
-      <c r="I6" s="248" t="n"/>
-      <c r="J6" s="248" t="n"/>
-      <c r="K6" s="59" t="inlineStr">
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="151" t="n"/>
+      <c r="J6" s="151" t="n"/>
+      <c r="K6" s="11" t="inlineStr">
         <is>
           <t>9,3</t>
         </is>
       </c>
-      <c r="L6" s="76" t="inlineStr">
+      <c r="L6" s="25" t="inlineStr">
         <is>
           <t>9,6</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.6" customHeight="1" s="243">
-      <c r="A7" s="249" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="146">
+      <c r="A7" s="152" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B7" s="53" t="n"/>
-      <c r="C7" s="54" t="inlineStr">
-        <is>
-          <t>25285</t>
-        </is>
-      </c>
-      <c r="D7" s="251" t="n"/>
-      <c r="E7" s="251" t="n"/>
-      <c r="F7" s="55" t="inlineStr">
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>11822</t>
+        </is>
+      </c>
+      <c r="D7" s="154" t="n"/>
+      <c r="E7" s="154" t="n"/>
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>04:57</t>
         </is>
       </c>
-      <c r="G7" s="55" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>11:56</t>
         </is>
       </c>
-      <c r="H7" s="54" t="inlineStr">
-        <is>
-          <t>23072</t>
-        </is>
-      </c>
-      <c r="I7" s="251" t="n"/>
-      <c r="J7" s="251" t="n"/>
-      <c r="K7" s="55" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>11536</t>
+        </is>
+      </c>
+      <c r="I7" s="154" t="n"/>
+      <c r="J7" s="154" t="n"/>
+      <c r="K7" s="7" t="inlineStr">
         <is>
           <t>11:56</t>
         </is>
       </c>
-      <c r="L7" s="75" t="inlineStr">
+      <c r="L7" s="24" t="inlineStr">
         <is>
           <t>20:54</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16.35" customHeight="1" s="243">
-      <c r="A8" s="252" t="n"/>
-      <c r="C8" s="58" t="n"/>
-      <c r="D8" s="248" t="n"/>
-      <c r="E8" s="248" t="n"/>
-      <c r="F8" s="59" t="inlineStr">
+    <row r="8" ht="16.5" customHeight="1" s="146">
+      <c r="A8" s="155" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="151" t="n"/>
+      <c r="E8" s="151" t="n"/>
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>7,4</t>
         </is>
       </c>
-      <c r="G8" s="59" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="H8" s="58" t="n"/>
-      <c r="I8" s="248" t="n"/>
-      <c r="J8" s="248" t="n"/>
-      <c r="K8" s="59" t="inlineStr">
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="151" t="n"/>
+      <c r="J8" s="151" t="n"/>
+      <c r="K8" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="L8" s="76" t="inlineStr">
+      <c r="L8" s="25" t="inlineStr">
         <is>
           <t>9,8</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.6" customHeight="1" s="243">
-      <c r="A9" s="253" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="146">
+      <c r="A9" s="156" t="inlineStr">
         <is>
           <t>3 Ш</t>
         </is>
       </c>
-      <c r="B9" s="254" t="n"/>
-      <c r="C9" s="63" t="inlineStr">
-        <is>
-          <t>21809</t>
-        </is>
-      </c>
-      <c r="D9" s="251" t="n"/>
-      <c r="E9" s="251" t="n"/>
-      <c r="F9" s="64" t="inlineStr">
+      <c r="B9" s="157" t="n"/>
+      <c r="C9" s="18" t="inlineStr">
+        <is>
+          <t>10632</t>
+        </is>
+      </c>
+      <c r="D9" s="154" t="n"/>
+      <c r="E9" s="154" t="n"/>
+      <c r="F9" s="19" t="inlineStr">
         <is>
           <t>05:06</t>
         </is>
       </c>
-      <c r="G9" s="64" t="inlineStr">
+      <c r="G9" s="19" t="inlineStr">
         <is>
           <t>12:26</t>
         </is>
       </c>
-      <c r="H9" s="63" t="inlineStr">
-        <is>
-          <t>23277</t>
-        </is>
-      </c>
-      <c r="I9" s="251" t="n"/>
-      <c r="J9" s="251" t="n"/>
-      <c r="K9" s="64" t="inlineStr">
+      <c r="H9" s="18" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="I9" s="154" t="n"/>
+      <c r="J9" s="154" t="n"/>
+      <c r="K9" s="19" t="inlineStr">
         <is>
           <t>12:26</t>
         </is>
       </c>
-      <c r="L9" s="77" t="inlineStr">
+      <c r="L9" s="26" t="inlineStr">
         <is>
           <t>20:36</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="16.35" customHeight="1" s="243">
-      <c r="A10" s="252" t="n"/>
-      <c r="B10" s="255" t="n"/>
-      <c r="C10" s="67" t="n"/>
-      <c r="D10" s="248" t="n"/>
-      <c r="E10" s="248" t="n"/>
-      <c r="F10" s="68" t="inlineStr">
+    <row r="10" ht="16.5" customHeight="1" s="146">
+      <c r="A10" s="155" t="n"/>
+      <c r="B10" s="158" t="n"/>
+      <c r="C10" s="22" t="n"/>
+      <c r="D10" s="151" t="n"/>
+      <c r="E10" s="151" t="n"/>
+      <c r="F10" s="23" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="G10" s="68" t="inlineStr">
+      <c r="G10" s="23" t="inlineStr">
         <is>
           <t>7,6</t>
         </is>
       </c>
-      <c r="H10" s="67" t="n"/>
-      <c r="I10" s="248" t="n"/>
-      <c r="J10" s="248" t="n"/>
-      <c r="K10" s="68" t="inlineStr">
+      <c r="H10" s="22" t="n"/>
+      <c r="I10" s="151" t="n"/>
+      <c r="J10" s="151" t="n"/>
+      <c r="K10" s="23" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="L10" s="78" t="inlineStr">
+      <c r="L10" s="27" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.6" customHeight="1" s="243">
-      <c r="A11" s="249" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="146">
+      <c r="A11" s="152" t="inlineStr">
         <is>
           <t>4 Ш</t>
         </is>
       </c>
-      <c r="B11" s="57" t="n"/>
-      <c r="C11" s="54" t="inlineStr">
-        <is>
-          <t>23053</t>
-        </is>
-      </c>
-      <c r="D11" s="251" t="n"/>
-      <c r="E11" s="251" t="n"/>
-      <c r="F11" s="55" t="inlineStr">
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>54821</t>
+        </is>
+      </c>
+      <c r="D11" s="154" t="n"/>
+      <c r="E11" s="154" t="n"/>
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>05:07</t>
         </is>
       </c>
-      <c r="G11" s="55" t="inlineStr">
+      <c r="G11" s="7" t="inlineStr">
         <is>
           <t>13:13</t>
         </is>
       </c>
-      <c r="H11" s="54" t="inlineStr">
-        <is>
-          <t>25190</t>
-        </is>
-      </c>
-      <c r="I11" s="251" t="n"/>
-      <c r="J11" s="251" t="n"/>
-      <c r="K11" s="55" t="inlineStr">
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>9485</t>
+        </is>
+      </c>
+      <c r="I11" s="154" t="n"/>
+      <c r="J11" s="154" t="n"/>
+      <c r="K11" s="7" t="inlineStr">
         <is>
           <t>13:13</t>
         </is>
       </c>
-      <c r="L11" s="75" t="inlineStr">
+      <c r="L11" s="24" t="inlineStr">
         <is>
           <t>21:59</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15.6" customHeight="1" s="243">
-      <c r="A12" s="252" t="n"/>
-      <c r="B12" s="248" t="n"/>
-      <c r="C12" s="58" t="n"/>
-      <c r="D12" s="248" t="n"/>
-      <c r="E12" s="248" t="n"/>
-      <c r="F12" s="59" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="146">
+      <c r="A12" s="155" t="n"/>
+      <c r="B12" s="151" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="151" t="n"/>
+      <c r="E12" s="151" t="n"/>
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="G12" s="59" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="H12" s="58" t="n"/>
-      <c r="I12" s="248" t="n"/>
-      <c r="J12" s="248" t="n"/>
-      <c r="K12" s="59" t="inlineStr">
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="151" t="n"/>
+      <c r="J12" s="151" t="n"/>
+      <c r="K12" s="11" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
       </c>
-      <c r="L12" s="76" t="inlineStr">
+      <c r="L12" s="25" t="inlineStr">
         <is>
           <t>9,6</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="243">
-      <c r="A13" s="249" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="146">
+      <c r="A13" s="152" t="inlineStr">
         <is>
           <t>5 Ш</t>
         </is>
       </c>
-      <c r="B13" s="250" t="n"/>
-      <c r="C13" s="54" t="inlineStr">
-        <is>
-          <t>25158</t>
-        </is>
-      </c>
-      <c r="D13" s="251" t="n"/>
-      <c r="E13" s="251" t="n"/>
-      <c r="F13" s="55" t="inlineStr">
+      <c r="B13" s="153" t="n"/>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>9136</t>
+        </is>
+      </c>
+      <c r="D13" s="154" t="n"/>
+      <c r="E13" s="154" t="n"/>
+      <c r="F13" s="7" t="inlineStr">
         <is>
           <t>05:12</t>
         </is>
       </c>
-      <c r="G13" s="55" t="inlineStr">
+      <c r="G13" s="7" t="inlineStr">
         <is>
           <t>12:09</t>
         </is>
       </c>
-      <c r="H13" s="54" t="inlineStr">
-        <is>
-          <t>25252</t>
-        </is>
-      </c>
-      <c r="I13" s="251" t="n"/>
-      <c r="J13" s="251" t="n"/>
-      <c r="K13" s="55" t="inlineStr">
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>11236</t>
+        </is>
+      </c>
+      <c r="I13" s="154" t="n"/>
+      <c r="J13" s="154" t="n"/>
+      <c r="K13" s="7" t="inlineStr">
         <is>
           <t>12:09</t>
         </is>
       </c>
-      <c r="L13" s="75" t="inlineStr">
+      <c r="L13" s="24" t="inlineStr">
         <is>
           <t>21:06</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="243">
-      <c r="A14" s="252" t="n"/>
-      <c r="B14" s="248" t="n"/>
-      <c r="C14" s="58" t="n"/>
-      <c r="D14" s="248" t="n"/>
-      <c r="E14" s="248" t="n"/>
-      <c r="F14" s="59" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="146">
+      <c r="A14" s="155" t="n"/>
+      <c r="B14" s="151" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="151" t="n"/>
+      <c r="E14" s="151" t="n"/>
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>7,4</t>
         </is>
       </c>
-      <c r="G14" s="59" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>7,7</t>
         </is>
       </c>
-      <c r="H14" s="58" t="n"/>
-      <c r="I14" s="248" t="n"/>
-      <c r="J14" s="248" t="n"/>
-      <c r="K14" s="59" t="inlineStr">
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="151" t="n"/>
+      <c r="J14" s="151" t="n"/>
+      <c r="K14" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="L14" s="76" t="inlineStr">
+      <c r="L14" s="25" t="inlineStr">
         <is>
           <t>9,7</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="15.6" customHeight="1" s="243">
-      <c r="A15" s="253" t="inlineStr">
+    <row r="15" ht="15.75" customHeight="1" s="146">
+      <c r="A15" s="156" t="inlineStr">
         <is>
           <t>6 Ш</t>
         </is>
       </c>
-      <c r="B15" s="256" t="n"/>
-      <c r="C15" s="63" t="inlineStr">
-        <is>
-          <t>25166</t>
-        </is>
-      </c>
-      <c r="D15" s="251" t="n"/>
-      <c r="E15" s="251" t="n"/>
-      <c r="F15" s="64" t="inlineStr">
+      <c r="B15" s="159" t="n"/>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>11924</t>
+        </is>
+      </c>
+      <c r="D15" s="154" t="n"/>
+      <c r="E15" s="154" t="n"/>
+      <c r="F15" s="19" t="inlineStr">
         <is>
           <t>05:30</t>
         </is>
       </c>
-      <c r="G15" s="64" t="inlineStr">
+      <c r="G15" s="19" t="inlineStr">
         <is>
           <t>12:56</t>
         </is>
       </c>
-      <c r="H15" s="63" t="inlineStr">
-        <is>
-          <t>26319</t>
-        </is>
-      </c>
-      <c r="I15" s="251" t="n"/>
-      <c r="J15" s="251" t="n"/>
-      <c r="K15" s="64" t="inlineStr">
+      <c r="H15" s="18" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="I15" s="154" t="n"/>
+      <c r="J15" s="154" t="n"/>
+      <c r="K15" s="19" t="inlineStr">
         <is>
           <t>12:56</t>
         </is>
       </c>
-      <c r="L15" s="77" t="inlineStr">
+      <c r="L15" s="26" t="inlineStr">
         <is>
           <t>21:02</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="15.6" customHeight="1" s="243">
-      <c r="A16" s="252" t="n"/>
-      <c r="B16" s="248" t="n"/>
-      <c r="C16" s="67" t="n"/>
-      <c r="D16" s="248" t="n"/>
-      <c r="E16" s="248" t="n"/>
-      <c r="F16" s="68" t="inlineStr">
+    <row r="16" ht="15.75" customHeight="1" s="146">
+      <c r="A16" s="155" t="n"/>
+      <c r="B16" s="151" t="n"/>
+      <c r="C16" s="22" t="n"/>
+      <c r="D16" s="151" t="n"/>
+      <c r="E16" s="151" t="n"/>
+      <c r="F16" s="23" t="inlineStr">
         <is>
           <t>7,9</t>
         </is>
       </c>
-      <c r="G16" s="68" t="inlineStr">
+      <c r="G16" s="23" t="inlineStr">
         <is>
           <t>7,7</t>
         </is>
       </c>
-      <c r="H16" s="67" t="n"/>
-      <c r="I16" s="248" t="n"/>
-      <c r="J16" s="248" t="n"/>
-      <c r="K16" s="68" t="inlineStr">
+      <c r="H16" s="22" t="n"/>
+      <c r="I16" s="151" t="n"/>
+      <c r="J16" s="151" t="n"/>
+      <c r="K16" s="23" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="L16" s="78" t="inlineStr">
+      <c r="L16" s="27" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="15.6" customHeight="1" s="243">
-      <c r="A17" s="249" t="inlineStr">
+    <row r="17" ht="15.75" customHeight="1" s="146">
+      <c r="A17" s="152" t="inlineStr">
         <is>
           <t>7 Ш</t>
         </is>
       </c>
-      <c r="B17" s="250" t="n"/>
-      <c r="C17" s="54" t="inlineStr">
-        <is>
-          <t>25232</t>
-        </is>
-      </c>
-      <c r="D17" s="251" t="n"/>
-      <c r="E17" s="251" t="n"/>
-      <c r="F17" s="55" t="inlineStr">
+      <c r="B17" s="153" t="n"/>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>9226</t>
+        </is>
+      </c>
+      <c r="D17" s="154" t="n"/>
+      <c r="E17" s="154" t="n"/>
+      <c r="F17" s="7" t="inlineStr">
         <is>
           <t>05:33</t>
         </is>
       </c>
-      <c r="G17" s="55" t="inlineStr">
+      <c r="G17" s="7" t="inlineStr">
         <is>
           <t>13:45</t>
         </is>
       </c>
-      <c r="H17" s="54" t="inlineStr">
-        <is>
-          <t>25727</t>
-        </is>
-      </c>
-      <c r="I17" s="251" t="n"/>
-      <c r="J17" s="251" t="n"/>
-      <c r="K17" s="55" t="inlineStr">
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>54437</t>
+        </is>
+      </c>
+      <c r="I17" s="154" t="n"/>
+      <c r="J17" s="154" t="n"/>
+      <c r="K17" s="7" t="inlineStr">
         <is>
           <t>13:45</t>
         </is>
       </c>
-      <c r="L17" s="75" t="inlineStr">
+      <c r="L17" s="24" t="inlineStr">
         <is>
           <t>22:23</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="15.6" customHeight="1" s="243">
-      <c r="A18" s="252" t="n"/>
-      <c r="B18" s="248" t="n"/>
-      <c r="C18" s="58" t="n"/>
-      <c r="D18" s="248" t="n"/>
-      <c r="E18" s="248" t="n"/>
-      <c r="F18" s="59" t="inlineStr">
+    <row r="18" ht="15.75" customHeight="1" s="146">
+      <c r="A18" s="155" t="n"/>
+      <c r="B18" s="151" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="151" t="n"/>
+      <c r="E18" s="151" t="n"/>
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="G18" s="59" t="inlineStr">
+      <c r="G18" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H18" s="58" t="n"/>
-      <c r="I18" s="248" t="n"/>
-      <c r="J18" s="248" t="n"/>
-      <c r="K18" s="59" t="inlineStr">
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="151" t="n"/>
+      <c r="J18" s="151" t="n"/>
+      <c r="K18" s="11" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="L18" s="76" t="inlineStr">
+      <c r="L18" s="25" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="15.6" customHeight="1" s="243">
-      <c r="A19" s="253" t="inlineStr">
+    <row r="19" ht="15.75" customHeight="1" s="146">
+      <c r="A19" s="156" t="inlineStr">
         <is>
           <t>8 Ш</t>
         </is>
       </c>
-      <c r="B19" s="256" t="n"/>
-      <c r="C19" s="63" t="inlineStr">
-        <is>
-          <t>25244</t>
-        </is>
-      </c>
-      <c r="D19" s="251" t="n"/>
-      <c r="E19" s="251" t="n"/>
-      <c r="F19" s="64" t="inlineStr">
+      <c r="B19" s="159" t="n"/>
+      <c r="C19" s="18" t="inlineStr">
+        <is>
+          <t>9301</t>
+        </is>
+      </c>
+      <c r="D19" s="154" t="n"/>
+      <c r="E19" s="154" t="n"/>
+      <c r="F19" s="19" t="inlineStr">
         <is>
           <t>05:55</t>
         </is>
       </c>
-      <c r="G19" s="64" t="inlineStr">
+      <c r="G19" s="19" t="inlineStr">
         <is>
           <t>13:29</t>
         </is>
       </c>
-      <c r="H19" s="63" t="inlineStr">
-        <is>
-          <t>26611</t>
-        </is>
-      </c>
-      <c r="I19" s="251" t="n"/>
-      <c r="J19" s="251" t="n"/>
-      <c r="K19" s="64" t="inlineStr">
+      <c r="H19" s="18" t="inlineStr">
+        <is>
+          <t>65202</t>
+        </is>
+      </c>
+      <c r="I19" s="154" t="n"/>
+      <c r="J19" s="154" t="n"/>
+      <c r="K19" s="19" t="inlineStr">
         <is>
           <t>13:29</t>
         </is>
       </c>
-      <c r="L19" s="77" t="inlineStr">
+      <c r="L19" s="26" t="inlineStr">
         <is>
           <t>21:33</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="15.6" customHeight="1" s="243">
-      <c r="A20" s="252" t="n"/>
-      <c r="B20" s="248" t="n"/>
-      <c r="C20" s="67" t="n"/>
-      <c r="D20" s="248" t="n"/>
-      <c r="E20" s="248" t="n"/>
-      <c r="F20" s="68" t="inlineStr">
+    <row r="20" ht="15.75" customHeight="1" s="146">
+      <c r="A20" s="155" t="n"/>
+      <c r="B20" s="151" t="n"/>
+      <c r="C20" s="22" t="n"/>
+      <c r="D20" s="151" t="n"/>
+      <c r="E20" s="151" t="n"/>
+      <c r="F20" s="23" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G20" s="68" t="inlineStr">
+      <c r="G20" s="23" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="H20" s="67" t="n"/>
-      <c r="I20" s="248" t="n"/>
-      <c r="J20" s="248" t="n"/>
-      <c r="K20" s="68" t="inlineStr">
+      <c r="H20" s="22" t="n"/>
+      <c r="I20" s="151" t="n"/>
+      <c r="J20" s="151" t="n"/>
+      <c r="K20" s="23" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="L20" s="78" t="inlineStr">
+      <c r="L20" s="27" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="15.6" customHeight="1" s="243">
-      <c r="A21" s="249" t="inlineStr">
+    <row r="21" ht="15.75" customHeight="1" s="146">
+      <c r="A21" s="152" t="inlineStr">
         <is>
           <t>9 Ш</t>
         </is>
       </c>
-      <c r="B21" s="250" t="n"/>
-      <c r="C21" s="54" t="inlineStr">
-        <is>
-          <t>25963</t>
-        </is>
-      </c>
-      <c r="D21" s="251" t="n"/>
-      <c r="E21" s="251" t="n"/>
-      <c r="F21" s="55" t="inlineStr">
+      <c r="B21" s="153" t="n"/>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>54681</t>
+        </is>
+      </c>
+      <c r="D21" s="154" t="n"/>
+      <c r="E21" s="154" t="n"/>
+      <c r="F21" s="7" t="inlineStr">
         <is>
           <t>05:59</t>
         </is>
       </c>
-      <c r="G21" s="55" t="inlineStr">
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>14:12</t>
         </is>
       </c>
-      <c r="H21" s="54" t="inlineStr">
-        <is>
-          <t>26670</t>
-        </is>
-      </c>
-      <c r="I21" s="251" t="n"/>
-      <c r="J21" s="251" t="n"/>
-      <c r="K21" s="55" t="inlineStr">
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="I21" s="154" t="n"/>
+      <c r="J21" s="154" t="n"/>
+      <c r="K21" s="7" t="inlineStr">
         <is>
           <t>14:12</t>
         </is>
       </c>
-      <c r="L21" s="75" t="inlineStr">
+      <c r="L21" s="24" t="inlineStr">
         <is>
           <t>21:59</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="15.6" customHeight="1" s="243">
-      <c r="A22" s="252" t="n"/>
-      <c r="B22" s="248" t="n"/>
-      <c r="C22" s="58" t="n"/>
-      <c r="D22" s="248" t="n"/>
-      <c r="E22" s="248" t="n"/>
-      <c r="F22" s="59" t="inlineStr">
+    <row r="22" ht="15.75" customHeight="1" s="146">
+      <c r="A22" s="155" t="n"/>
+      <c r="B22" s="151" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="151" t="n"/>
+      <c r="E22" s="151" t="n"/>
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="G22" s="59" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H22" s="58" t="n"/>
-      <c r="I22" s="248" t="n"/>
-      <c r="J22" s="248" t="n"/>
-      <c r="K22" s="59" t="inlineStr">
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="151" t="n"/>
+      <c r="J22" s="151" t="n"/>
+      <c r="K22" s="11" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="L22" s="76" t="inlineStr">
+      <c r="L22" s="25" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15.6" customHeight="1" s="243">
-      <c r="A23" s="249" t="inlineStr">
+    <row r="23" ht="15.75" customHeight="1" s="146">
+      <c r="A23" s="152" t="inlineStr">
         <is>
           <t>10 Ш</t>
         </is>
       </c>
-      <c r="B23" s="250" t="n"/>
-      <c r="C23" s="54" t="inlineStr">
-        <is>
-          <t>26018</t>
-        </is>
-      </c>
-      <c r="D23" s="251" t="n"/>
-      <c r="E23" s="251" t="n"/>
-      <c r="F23" s="55" t="inlineStr">
+      <c r="B23" s="153" t="n"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>54211</t>
+        </is>
+      </c>
+      <c r="D23" s="154" t="n"/>
+      <c r="E23" s="154" t="n"/>
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>06:12</t>
         </is>
       </c>
-      <c r="G23" s="55" t="inlineStr">
+      <c r="G23" s="7" t="inlineStr">
         <is>
           <t>14:24</t>
         </is>
       </c>
-      <c r="H23" s="54" t="inlineStr">
-        <is>
-          <t>26698</t>
-        </is>
-      </c>
-      <c r="I23" s="251" t="n"/>
-      <c r="J23" s="251" t="n"/>
-      <c r="K23" s="55" t="inlineStr">
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>54125</t>
+        </is>
+      </c>
+      <c r="I23" s="154" t="n"/>
+      <c r="J23" s="154" t="n"/>
+      <c r="K23" s="7" t="inlineStr">
         <is>
           <t>14:24</t>
         </is>
       </c>
-      <c r="L23" s="75" t="inlineStr">
+      <c r="L23" s="24" t="inlineStr">
         <is>
           <t>22:11</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="15.6" customHeight="1" s="243">
-      <c r="A24" s="252" t="n"/>
-      <c r="B24" s="248" t="n"/>
-      <c r="C24" s="58" t="n"/>
-      <c r="D24" s="248" t="n"/>
-      <c r="E24" s="248" t="n"/>
-      <c r="F24" s="59" t="inlineStr">
+    <row r="24" ht="15.75" customHeight="1" s="146">
+      <c r="A24" s="155" t="n"/>
+      <c r="B24" s="151" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="151" t="n"/>
+      <c r="E24" s="151" t="n"/>
+      <c r="F24" s="11" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="G24" s="59" t="inlineStr">
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H24" s="58" t="n"/>
-      <c r="I24" s="248" t="n"/>
-      <c r="J24" s="248" t="n"/>
-      <c r="K24" s="59" t="inlineStr">
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="151" t="n"/>
+      <c r="J24" s="151" t="n"/>
+      <c r="K24" s="11" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="L24" s="76" t="inlineStr">
+      <c r="L24" s="25" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="15.6" customHeight="1" s="243">
-      <c r="A25" s="253" t="inlineStr">
+    <row r="25" ht="15.75" customHeight="1" s="146">
+      <c r="A25" s="156" t="inlineStr">
         <is>
           <t>11 Ш</t>
         </is>
       </c>
-      <c r="B25" s="256" t="n"/>
-      <c r="C25" s="63" t="inlineStr">
-        <is>
-          <t>26101</t>
-        </is>
-      </c>
-      <c r="D25" s="251" t="n"/>
-      <c r="E25" s="251" t="n"/>
-      <c r="F25" s="64" t="inlineStr">
+      <c r="B25" s="159" t="n"/>
+      <c r="C25" s="18" t="inlineStr">
+        <is>
+          <t>37881</t>
+        </is>
+      </c>
+      <c r="D25" s="154" t="n"/>
+      <c r="E25" s="154" t="n"/>
+      <c r="F25" s="19" t="inlineStr">
         <is>
           <t>06:21</t>
         </is>
       </c>
-      <c r="G25" s="64" t="inlineStr">
+      <c r="G25" s="19" t="inlineStr">
         <is>
           <t>13:59</t>
         </is>
       </c>
-      <c r="H25" s="63" t="inlineStr">
-        <is>
-          <t>26761</t>
-        </is>
-      </c>
-      <c r="I25" s="251" t="n"/>
-      <c r="J25" s="251" t="n"/>
-      <c r="K25" s="64" t="inlineStr">
+      <c r="H25" s="18" t="inlineStr">
+        <is>
+          <t>9988</t>
+        </is>
+      </c>
+      <c r="I25" s="154" t="n"/>
+      <c r="J25" s="154" t="n"/>
+      <c r="K25" s="19" t="inlineStr">
         <is>
           <t>13:59</t>
         </is>
       </c>
-      <c r="L25" s="77" t="inlineStr">
+      <c r="L25" s="26" t="inlineStr">
         <is>
           <t>21:58</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="15.6" customHeight="1" s="243">
-      <c r="A26" s="252" t="n"/>
-      <c r="B26" s="248" t="n"/>
-      <c r="C26" s="67" t="n"/>
-      <c r="D26" s="248" t="n"/>
-      <c r="E26" s="248" t="n"/>
-      <c r="F26" s="68" t="inlineStr">
+    <row r="26" ht="15.75" customHeight="1" s="146">
+      <c r="A26" s="155" t="n"/>
+      <c r="B26" s="151" t="n"/>
+      <c r="C26" s="22" t="n"/>
+      <c r="D26" s="151" t="n"/>
+      <c r="E26" s="151" t="n"/>
+      <c r="F26" s="23" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="G26" s="68" t="inlineStr">
+      <c r="G26" s="23" t="inlineStr">
         <is>
           <t>7,9</t>
         </is>
       </c>
-      <c r="H26" s="67" t="n"/>
-      <c r="I26" s="248" t="n"/>
-      <c r="J26" s="248" t="n"/>
-      <c r="K26" s="68" t="inlineStr">
+      <c r="H26" s="22" t="n"/>
+      <c r="I26" s="151" t="n"/>
+      <c r="J26" s="151" t="n"/>
+      <c r="K26" s="23" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="L26" s="78" t="inlineStr">
+      <c r="L26" s="27" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="15.6" customHeight="1" s="243">
-      <c r="A27" s="249" t="inlineStr">
+    <row r="27" ht="15.75" customHeight="1" s="146">
+      <c r="A27" s="152" t="inlineStr">
         <is>
           <t>12 Ш</t>
         </is>
       </c>
-      <c r="B27" s="250" t="n"/>
-      <c r="C27" s="54" t="inlineStr">
-        <is>
-          <t>26105</t>
-        </is>
-      </c>
-      <c r="D27" s="251" t="n"/>
-      <c r="E27" s="251" t="n"/>
-      <c r="F27" s="55" t="inlineStr">
+      <c r="B27" s="153" t="n"/>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>7048</t>
+        </is>
+      </c>
+      <c r="D27" s="154" t="n"/>
+      <c r="E27" s="154" t="n"/>
+      <c r="F27" s="7" t="inlineStr">
         <is>
           <t>07:34</t>
         </is>
       </c>
-      <c r="G27" s="55" t="inlineStr">
+      <c r="G27" s="7" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="H27" s="54" t="inlineStr">
-        <is>
-          <t>26766</t>
-        </is>
-      </c>
-      <c r="I27" s="251" t="n"/>
-      <c r="J27" s="251" t="n"/>
-      <c r="K27" s="55" t="inlineStr">
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>11534</t>
+        </is>
+      </c>
+      <c r="I27" s="154" t="n"/>
+      <c r="J27" s="154" t="n"/>
+      <c r="K27" s="7" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="L27" s="75" t="inlineStr">
+      <c r="L27" s="24" t="inlineStr">
         <is>
           <t>00:26</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15.6" customHeight="1" s="243">
-      <c r="A28" s="252" t="n"/>
-      <c r="B28" s="248" t="n"/>
-      <c r="C28" s="58" t="n"/>
-      <c r="D28" s="248" t="n"/>
-      <c r="E28" s="248" t="n"/>
-      <c r="F28" s="59" t="inlineStr">
+    <row r="28" ht="15.75" customHeight="1" s="146">
+      <c r="A28" s="155" t="n"/>
+      <c r="B28" s="151" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="151" t="n"/>
+      <c r="E28" s="151" t="n"/>
+      <c r="F28" s="11" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="G28" s="59" t="inlineStr">
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
       </c>
-      <c r="H28" s="58" t="n"/>
-      <c r="I28" s="248" t="n"/>
-      <c r="J28" s="248" t="n"/>
-      <c r="K28" s="59" t="inlineStr">
+      <c r="H28" s="10" t="n"/>
+      <c r="I28" s="151" t="n"/>
+      <c r="J28" s="151" t="n"/>
+      <c r="K28" s="11" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L28" s="76" t="inlineStr">
+      <c r="L28" s="25" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="15.6" customHeight="1" s="243">
-      <c r="A29" s="249" t="inlineStr">
+    <row r="29" ht="15.75" customHeight="1" s="146">
+      <c r="A29" s="152" t="inlineStr">
         <is>
           <t>13 Ш</t>
         </is>
       </c>
-      <c r="B29" s="250" t="n"/>
-      <c r="C29" s="54" t="inlineStr">
-        <is>
-          <t>26116</t>
-        </is>
-      </c>
-      <c r="D29" s="251" t="n"/>
-      <c r="E29" s="251" t="n"/>
-      <c r="F29" s="55" t="inlineStr">
+      <c r="B29" s="153" t="n"/>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>54322</t>
+        </is>
+      </c>
+      <c r="D29" s="154" t="n"/>
+      <c r="E29" s="154" t="n"/>
+      <c r="F29" s="7" t="inlineStr">
         <is>
           <t>07:47</t>
         </is>
       </c>
-      <c r="G29" s="55" t="inlineStr">
+      <c r="G29" s="7" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="H29" s="54" t="inlineStr">
-        <is>
-          <t>26856</t>
-        </is>
-      </c>
-      <c r="I29" s="251" t="n"/>
-      <c r="J29" s="251" t="n"/>
-      <c r="K29" s="55" t="inlineStr">
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>54794</t>
+        </is>
+      </c>
+      <c r="I29" s="154" t="n"/>
+      <c r="J29" s="154" t="n"/>
+      <c r="K29" s="7" t="inlineStr">
         <is>
           <t>16:15</t>
         </is>
       </c>
-      <c r="L29" s="75" t="inlineStr">
+      <c r="L29" s="24" t="inlineStr">
         <is>
           <t>00:39</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15.6" customHeight="1" s="243">
-      <c r="A30" s="252" t="n"/>
-      <c r="B30" s="248" t="n"/>
-      <c r="C30" s="58" t="n"/>
-      <c r="D30" s="248" t="n"/>
-      <c r="E30" s="248" t="n"/>
-      <c r="F30" s="59" t="inlineStr">
+    <row r="30" ht="15.75" customHeight="1" s="146">
+      <c r="A30" s="155" t="n"/>
+      <c r="B30" s="151" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="151" t="n"/>
+      <c r="E30" s="151" t="n"/>
+      <c r="F30" s="11" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="G30" s="59" t="inlineStr">
+      <c r="G30" s="11" t="inlineStr">
         <is>
           <t>9,3</t>
         </is>
       </c>
-      <c r="H30" s="58" t="n"/>
-      <c r="I30" s="248" t="n"/>
-      <c r="J30" s="248" t="n"/>
-      <c r="K30" s="59" t="inlineStr">
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="151" t="n"/>
+      <c r="J30" s="151" t="n"/>
+      <c r="K30" s="11" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L30" s="76" t="inlineStr">
+      <c r="L30" s="25" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="15.6" customHeight="1" s="243">
-      <c r="A31" s="253" t="inlineStr">
+    <row r="31" ht="15.75" customHeight="1" s="146">
+      <c r="A31" s="156" t="inlineStr">
         <is>
           <t>14 Ш</t>
         </is>
       </c>
-      <c r="B31" s="256" t="n"/>
-      <c r="C31" s="63" t="inlineStr">
-        <is>
-          <t>26160</t>
-        </is>
-      </c>
-      <c r="D31" s="251" t="n"/>
-      <c r="E31" s="251" t="n"/>
-      <c r="F31" s="64" t="inlineStr">
+      <c r="B31" s="159" t="n"/>
+      <c r="C31" s="18" t="inlineStr">
+        <is>
+          <t>54239</t>
+        </is>
+      </c>
+      <c r="D31" s="154" t="n"/>
+      <c r="E31" s="154" t="n"/>
+      <c r="F31" s="19" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="G31" s="64" t="inlineStr">
+      <c r="G31" s="19" t="inlineStr">
         <is>
           <t>15:46</t>
         </is>
       </c>
-      <c r="H31" s="63" t="inlineStr">
-        <is>
-          <t>26954</t>
-        </is>
-      </c>
-      <c r="I31" s="251" t="n"/>
-      <c r="J31" s="251" t="n"/>
-      <c r="K31" s="64" t="inlineStr">
+      <c r="H31" s="18" t="inlineStr">
+        <is>
+          <t>54935</t>
+        </is>
+      </c>
+      <c r="I31" s="154" t="n"/>
+      <c r="J31" s="154" t="n"/>
+      <c r="K31" s="19" t="inlineStr">
         <is>
           <t>15:46</t>
         </is>
       </c>
-      <c r="L31" s="77" t="inlineStr">
+      <c r="L31" s="26" t="inlineStr">
         <is>
           <t>23:38</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="15.6" customHeight="1" s="243">
-      <c r="A32" s="252" t="n"/>
-      <c r="B32" s="248" t="n"/>
-      <c r="C32" s="67" t="n"/>
-      <c r="D32" s="248" t="n"/>
-      <c r="E32" s="248" t="n"/>
-      <c r="F32" s="68" t="inlineStr">
+    <row r="32" ht="15.75" customHeight="1" s="146">
+      <c r="A32" s="155" t="n"/>
+      <c r="B32" s="151" t="n"/>
+      <c r="C32" s="22" t="n"/>
+      <c r="D32" s="151" t="n"/>
+      <c r="E32" s="151" t="n"/>
+      <c r="F32" s="23" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="G32" s="68" t="inlineStr">
+      <c r="G32" s="23" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H32" s="67" t="n"/>
-      <c r="I32" s="248" t="n"/>
-      <c r="J32" s="248" t="n"/>
-      <c r="K32" s="68" t="inlineStr">
+      <c r="H32" s="22" t="n"/>
+      <c r="I32" s="151" t="n"/>
+      <c r="J32" s="151" t="n"/>
+      <c r="K32" s="23" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="L32" s="78" t="inlineStr">
+      <c r="L32" s="27" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="15.6" customHeight="1" s="243">
-      <c r="A33" s="249" t="inlineStr">
+    <row r="33" ht="15.75" customHeight="1" s="146">
+      <c r="A33" s="152" t="inlineStr">
         <is>
           <t>15 Ш</t>
         </is>
       </c>
-      <c r="B33" s="250" t="n"/>
-      <c r="C33" s="54" t="inlineStr">
-        <is>
-          <t>26161</t>
-        </is>
-      </c>
-      <c r="D33" s="251" t="n"/>
-      <c r="E33" s="251" t="n"/>
-      <c r="F33" s="55" t="inlineStr">
+      <c r="B33" s="153" t="n"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>11533</t>
+        </is>
+      </c>
+      <c r="D33" s="154" t="n"/>
+      <c r="E33" s="154" t="n"/>
+      <c r="F33" s="7" t="inlineStr">
         <is>
           <t>08:03</t>
         </is>
       </c>
-      <c r="G33" s="55" t="inlineStr">
+      <c r="G33" s="7" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="H33" s="54" t="inlineStr">
-        <is>
-          <t>27056</t>
-        </is>
-      </c>
-      <c r="I33" s="251" t="n"/>
-      <c r="J33" s="251" t="n"/>
-      <c r="K33" s="55" t="inlineStr">
+      <c r="H33" s="6" t="inlineStr">
+        <is>
+          <t>9432</t>
+        </is>
+      </c>
+      <c r="I33" s="154" t="n"/>
+      <c r="J33" s="154" t="n"/>
+      <c r="K33" s="7" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="L33" s="75" t="inlineStr">
+      <c r="L33" s="24" t="inlineStr">
         <is>
           <t>00:00</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="15.6" customHeight="1" s="243">
-      <c r="A34" s="252" t="n"/>
-      <c r="B34" s="248" t="n"/>
-      <c r="C34" s="58" t="n"/>
-      <c r="D34" s="248" t="n"/>
-      <c r="E34" s="248" t="n"/>
-      <c r="F34" s="59" t="inlineStr">
+    <row r="34" ht="15.75" customHeight="1" s="146">
+      <c r="A34" s="155" t="n"/>
+      <c r="B34" s="151" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="151" t="n"/>
+      <c r="E34" s="151" t="n"/>
+      <c r="F34" s="11" t="inlineStr">
         <is>
           <t>7,9</t>
         </is>
       </c>
-      <c r="G34" s="59" t="inlineStr">
+      <c r="G34" s="11" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="H34" s="58" t="n"/>
-      <c r="I34" s="248" t="n"/>
-      <c r="J34" s="248" t="n"/>
-      <c r="K34" s="59" t="inlineStr">
+      <c r="H34" s="10" t="n"/>
+      <c r="I34" s="151" t="n"/>
+      <c r="J34" s="151" t="n"/>
+      <c r="K34" s="11" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L34" s="76" t="inlineStr">
+      <c r="L34" s="25" t="inlineStr">
         <is>
           <t>9,3</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="15.6" customHeight="1" s="243">
-      <c r="A35" s="249" t="inlineStr">
+    <row r="35" ht="15.75" customHeight="1" s="146">
+      <c r="A35" s="152" t="inlineStr">
         <is>
           <t>16 Ш</t>
         </is>
       </c>
-      <c r="B35" s="250" t="n"/>
-      <c r="C35" s="54" t="inlineStr">
-        <is>
-          <t>26214</t>
-        </is>
-      </c>
-      <c r="D35" s="251" t="n"/>
-      <c r="E35" s="251" t="n"/>
-      <c r="F35" s="55" t="inlineStr">
+      <c r="B35" s="153" t="n"/>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>54477</t>
+        </is>
+      </c>
+      <c r="D35" s="154" t="n"/>
+      <c r="E35" s="154" t="n"/>
+      <c r="F35" s="7" t="inlineStr">
         <is>
           <t>08:13</t>
         </is>
       </c>
-      <c r="G35" s="55" t="inlineStr">
+      <c r="G35" s="7" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="H35" s="54" t="inlineStr">
-        <is>
-          <t>27058</t>
-        </is>
-      </c>
-      <c r="I35" s="251" t="n"/>
-      <c r="J35" s="251" t="n"/>
-      <c r="K35" s="55" t="inlineStr">
+      <c r="H35" s="6" t="inlineStr">
+        <is>
+          <t>10572</t>
+        </is>
+      </c>
+      <c r="I35" s="154" t="n"/>
+      <c r="J35" s="154" t="n"/>
+      <c r="K35" s="7" t="inlineStr">
         <is>
           <t>16:50</t>
         </is>
       </c>
-      <c r="L35" s="75" t="inlineStr">
+      <c r="L35" s="24" t="inlineStr">
         <is>
           <t>01:05</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="15.6" customHeight="1" s="243">
-      <c r="A36" s="252" t="n"/>
-      <c r="B36" s="248" t="n"/>
-      <c r="C36" s="58" t="n"/>
-      <c r="D36" s="248" t="n"/>
-      <c r="E36" s="248" t="n"/>
-      <c r="F36" s="59" t="inlineStr">
+    <row r="36" ht="15.75" customHeight="1" s="146">
+      <c r="A36" s="155" t="n"/>
+      <c r="B36" s="151" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="151" t="n"/>
+      <c r="E36" s="151" t="n"/>
+      <c r="F36" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G36" s="59" t="inlineStr">
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H36" s="58" t="n"/>
-      <c r="I36" s="248" t="n"/>
-      <c r="J36" s="248" t="n"/>
-      <c r="K36" s="59" t="inlineStr">
+      <c r="H36" s="10" t="n"/>
+      <c r="I36" s="151" t="n"/>
+      <c r="J36" s="151" t="n"/>
+      <c r="K36" s="11" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="L36" s="76" t="inlineStr">
+      <c r="L36" s="25" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15.6" customHeight="1" s="243">
-      <c r="A37" s="249" t="inlineStr">
+    <row r="37" ht="15.75" customHeight="1" s="146">
+      <c r="A37" s="152" t="inlineStr">
         <is>
           <t>17 Ш</t>
         </is>
       </c>
-      <c r="B37" s="250" t="n"/>
-      <c r="C37" s="54" t="inlineStr">
-        <is>
-          <t>26221</t>
-        </is>
-      </c>
-      <c r="D37" s="251" t="n"/>
-      <c r="E37" s="251" t="n"/>
-      <c r="F37" s="55" t="inlineStr">
+      <c r="B37" s="153" t="n"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>54231</t>
+        </is>
+      </c>
+      <c r="D37" s="154" t="n"/>
+      <c r="E37" s="154" t="n"/>
+      <c r="F37" s="7" t="inlineStr">
         <is>
           <t>08:38</t>
         </is>
       </c>
-      <c r="G37" s="55" t="inlineStr">
+      <c r="G37" s="7" t="inlineStr">
         <is>
           <t>17:13</t>
         </is>
       </c>
-      <c r="H37" s="54" t="inlineStr">
-        <is>
-          <t>27157</t>
-        </is>
-      </c>
-      <c r="I37" s="251" t="n"/>
-      <c r="J37" s="251" t="n"/>
-      <c r="K37" s="55" t="inlineStr">
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t>9340</t>
+        </is>
+      </c>
+      <c r="I37" s="154" t="n"/>
+      <c r="J37" s="154" t="n"/>
+      <c r="K37" s="7" t="inlineStr">
         <is>
           <t>17:13</t>
         </is>
       </c>
-      <c r="L37" s="75" t="inlineStr">
+      <c r="L37" s="24" t="inlineStr">
         <is>
           <t>01:31</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="15.6" customHeight="1" s="243">
-      <c r="A38" s="252" t="n"/>
-      <c r="B38" s="248" t="n"/>
-      <c r="C38" s="58" t="n"/>
-      <c r="D38" s="248" t="n"/>
-      <c r="E38" s="248" t="n"/>
-      <c r="F38" s="59" t="inlineStr">
+    <row r="38" ht="15.75" customHeight="1" s="146">
+      <c r="A38" s="155" t="n"/>
+      <c r="B38" s="151" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="151" t="n"/>
+      <c r="E38" s="151" t="n"/>
+      <c r="F38" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G38" s="59" t="inlineStr">
+      <c r="G38" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H38" s="58" t="n"/>
-      <c r="I38" s="248" t="n"/>
-      <c r="J38" s="248" t="n"/>
-      <c r="K38" s="59" t="inlineStr">
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="151" t="n"/>
+      <c r="J38" s="151" t="n"/>
+      <c r="K38" s="11" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="L38" s="76" t="inlineStr">
+      <c r="L38" s="25" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="15.6" customHeight="1" s="243">
-      <c r="A39" s="253" t="inlineStr">
+    <row r="39" ht="15.75" customHeight="1" s="146">
+      <c r="A39" s="156" t="inlineStr">
         <is>
           <t>18 Ш</t>
         </is>
       </c>
-      <c r="B39" s="69" t="n"/>
-      <c r="C39" s="63" t="inlineStr">
-        <is>
-          <t>26239</t>
-        </is>
-      </c>
-      <c r="D39" s="251" t="n"/>
-      <c r="E39" s="251" t="n"/>
-      <c r="F39" s="64" t="inlineStr">
+      <c r="B39" s="17" t="n"/>
+      <c r="C39" s="18" t="inlineStr">
+        <is>
+          <t>55002</t>
+        </is>
+      </c>
+      <c r="D39" s="154" t="n"/>
+      <c r="E39" s="154" t="n"/>
+      <c r="F39" s="19" t="inlineStr">
         <is>
           <t>08:44</t>
         </is>
       </c>
-      <c r="G39" s="64" t="inlineStr">
+      <c r="G39" s="19" t="inlineStr">
         <is>
           <t>16:31</t>
         </is>
       </c>
-      <c r="H39" s="63" t="inlineStr">
-        <is>
-          <t>27182</t>
-        </is>
-      </c>
-      <c r="I39" s="251" t="n"/>
-      <c r="J39" s="251" t="n"/>
-      <c r="K39" s="64" t="inlineStr">
+      <c r="H39" s="18" t="inlineStr">
+        <is>
+          <t>54394</t>
+        </is>
+      </c>
+      <c r="I39" s="154" t="n"/>
+      <c r="J39" s="154" t="n"/>
+      <c r="K39" s="19" t="inlineStr">
         <is>
           <t>16:31</t>
         </is>
       </c>
-      <c r="L39" s="77" t="inlineStr">
+      <c r="L39" s="26" t="inlineStr">
         <is>
           <t>00:16</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="16.35" customHeight="1" s="243">
-      <c r="A40" s="252" t="n"/>
-      <c r="C40" s="67" t="n"/>
-      <c r="D40" s="248" t="n"/>
-      <c r="E40" s="248" t="n"/>
-      <c r="F40" s="68" t="inlineStr">
+    <row r="40" ht="16.5" customHeight="1" s="146">
+      <c r="A40" s="155" t="n"/>
+      <c r="C40" s="22" t="n"/>
+      <c r="D40" s="151" t="n"/>
+      <c r="E40" s="151" t="n"/>
+      <c r="F40" s="23" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="G40" s="68" t="inlineStr">
+      <c r="G40" s="23" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="H40" s="67" t="n"/>
-      <c r="I40" s="248" t="n"/>
-      <c r="J40" s="248" t="n"/>
-      <c r="K40" s="68" t="inlineStr">
+      <c r="H40" s="22" t="n"/>
+      <c r="I40" s="151" t="n"/>
+      <c r="J40" s="151" t="n"/>
+      <c r="K40" s="23" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
-      <c r="L40" s="78" t="inlineStr">
+      <c r="L40" s="27" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="15.6" customHeight="1" s="243">
-      <c r="A41" s="249" t="inlineStr">
+    <row r="41" ht="15.75" customHeight="1" s="146">
+      <c r="A41" s="152" t="inlineStr">
         <is>
           <t>19 Ш</t>
         </is>
       </c>
-      <c r="B41" s="257" t="n"/>
-      <c r="C41" s="54" t="inlineStr">
-        <is>
-          <t>26439</t>
-        </is>
-      </c>
-      <c r="D41" s="251" t="n"/>
-      <c r="E41" s="251" t="n"/>
-      <c r="F41" s="55" t="inlineStr">
+      <c r="B41" s="160" t="n"/>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>9428</t>
+        </is>
+      </c>
+      <c r="D41" s="154" t="n"/>
+      <c r="E41" s="154" t="n"/>
+      <c r="F41" s="7" t="inlineStr">
         <is>
           <t>08:51</t>
         </is>
       </c>
-      <c r="G41" s="55" t="inlineStr">
+      <c r="G41" s="7" t="inlineStr">
         <is>
           <t>17:27</t>
         </is>
       </c>
-      <c r="H41" s="73" t="inlineStr">
-        <is>
-          <t>27248</t>
-        </is>
-      </c>
-      <c r="I41" s="251" t="n"/>
-      <c r="J41" s="251" t="n"/>
-      <c r="K41" s="55" t="inlineStr">
+      <c r="H41" s="14" t="inlineStr">
+        <is>
+          <t>11307</t>
+        </is>
+      </c>
+      <c r="I41" s="154" t="n"/>
+      <c r="J41" s="154" t="n"/>
+      <c r="K41" s="7" t="inlineStr">
         <is>
           <t>17:27</t>
         </is>
       </c>
-      <c r="L41" s="75" t="inlineStr">
+      <c r="L41" s="24" t="inlineStr">
         <is>
           <t>01:44</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="16.35" customHeight="1" s="243">
-      <c r="A42" s="252" t="n"/>
-      <c r="B42" s="255" t="n"/>
-      <c r="C42" s="58" t="n"/>
-      <c r="D42" s="248" t="n"/>
-      <c r="E42" s="248" t="n"/>
-      <c r="F42" s="59" t="inlineStr">
+    <row r="42" ht="16.5" customHeight="1" s="146">
+      <c r="A42" s="155" t="n"/>
+      <c r="B42" s="158" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="151" t="n"/>
+      <c r="E42" s="151" t="n"/>
+      <c r="F42" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G42" s="59" t="inlineStr">
+      <c r="G42" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H42" s="58" t="n"/>
-      <c r="I42" s="248" t="n"/>
-      <c r="J42" s="248" t="n"/>
-      <c r="K42" s="59" t="inlineStr">
+      <c r="H42" s="10" t="n"/>
+      <c r="I42" s="151" t="n"/>
+      <c r="J42" s="151" t="n"/>
+      <c r="K42" s="11" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="L42" s="76" t="inlineStr">
+      <c r="L42" s="25" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="15.6" customHeight="1" s="243">
-      <c r="A43" s="249" t="inlineStr">
+    <row r="43" ht="15.75" customHeight="1" s="146">
+      <c r="A43" s="152" t="inlineStr">
         <is>
           <t>20 Ш</t>
         </is>
       </c>
-      <c r="B43" s="57" t="n"/>
-      <c r="C43" s="54" t="inlineStr">
-        <is>
-          <t>26554</t>
-        </is>
-      </c>
-      <c r="D43" s="251" t="n"/>
-      <c r="E43" s="251" t="n"/>
-      <c r="F43" s="55" t="inlineStr">
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>11641</t>
+        </is>
+      </c>
+      <c r="D43" s="154" t="n"/>
+      <c r="E43" s="154" t="n"/>
+      <c r="F43" s="7" t="inlineStr">
         <is>
           <t>09:06</t>
         </is>
       </c>
-      <c r="G43" s="55" t="inlineStr">
+      <c r="G43" s="7" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="H43" s="54" t="inlineStr">
-        <is>
-          <t>27315</t>
-        </is>
-      </c>
-      <c r="I43" s="251" t="n"/>
-      <c r="J43" s="251" t="n"/>
-      <c r="K43" s="55" t="inlineStr">
+      <c r="H43" s="6" t="inlineStr">
+        <is>
+          <t>9116</t>
+        </is>
+      </c>
+      <c r="I43" s="154" t="n"/>
+      <c r="J43" s="154" t="n"/>
+      <c r="K43" s="7" t="inlineStr">
         <is>
           <t>17:41</t>
         </is>
       </c>
-      <c r="L43" s="75" t="inlineStr">
+      <c r="L43" s="24" t="inlineStr">
         <is>
           <t>01:05</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.6" customHeight="1" s="243">
-      <c r="A44" s="252" t="n"/>
-      <c r="B44" s="248" t="n"/>
-      <c r="C44" s="58" t="n"/>
-      <c r="D44" s="248" t="n"/>
-      <c r="E44" s="248" t="n"/>
-      <c r="F44" s="59" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="146">
+      <c r="A44" s="155" t="n"/>
+      <c r="B44" s="151" t="n"/>
+      <c r="C44" s="10" t="n"/>
+      <c r="D44" s="151" t="n"/>
+      <c r="E44" s="151" t="n"/>
+      <c r="F44" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G44" s="59" t="inlineStr">
+      <c r="G44" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H44" s="58" t="n"/>
-      <c r="I44" s="248" t="n"/>
-      <c r="J44" s="248" t="n"/>
-      <c r="K44" s="59" t="inlineStr">
+      <c r="H44" s="10" t="n"/>
+      <c r="I44" s="151" t="n"/>
+      <c r="J44" s="151" t="n"/>
+      <c r="K44" s="11" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="L44" s="76" t="inlineStr">
+      <c r="L44" s="25" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15.6" customHeight="1" s="243">
-      <c r="A45" s="253" t="inlineStr">
+    <row r="45" ht="15.75" customHeight="1" s="146">
+      <c r="A45" s="156" t="inlineStr">
         <is>
           <t>21 Ш</t>
         </is>
       </c>
-      <c r="B45" s="256" t="n"/>
-      <c r="C45" s="63" t="inlineStr">
-        <is>
-          <t>26663</t>
-        </is>
-      </c>
-      <c r="D45" s="251" t="n"/>
-      <c r="E45" s="251" t="n"/>
-      <c r="F45" s="64" t="inlineStr">
+      <c r="B45" s="159" t="n"/>
+      <c r="C45" s="18" t="inlineStr">
+        <is>
+          <t>5559</t>
+        </is>
+      </c>
+      <c r="D45" s="154" t="n"/>
+      <c r="E45" s="154" t="n"/>
+      <c r="F45" s="19" t="inlineStr">
         <is>
           <t>09:10</t>
         </is>
       </c>
-      <c r="G45" s="64" t="inlineStr">
+      <c r="G45" s="19" t="inlineStr">
         <is>
           <t>17:01</t>
         </is>
       </c>
-      <c r="H45" s="63" t="inlineStr">
-        <is>
-          <t>27404</t>
-        </is>
-      </c>
-      <c r="I45" s="251" t="n"/>
-      <c r="J45" s="251" t="n"/>
-      <c r="K45" s="64" t="inlineStr">
+      <c r="H45" s="18" t="inlineStr">
+        <is>
+          <t>54690</t>
+        </is>
+      </c>
+      <c r="I45" s="154" t="n"/>
+      <c r="J45" s="154" t="n"/>
+      <c r="K45" s="19" t="inlineStr">
         <is>
           <t>17:01</t>
         </is>
       </c>
-      <c r="L45" s="77" t="inlineStr">
+      <c r="L45" s="26" t="inlineStr">
         <is>
           <t>00:43</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="15.6" customHeight="1" s="243">
-      <c r="A46" s="252" t="n"/>
-      <c r="B46" s="248" t="n"/>
-      <c r="C46" s="67" t="n"/>
-      <c r="D46" s="248" t="n"/>
-      <c r="E46" s="248" t="n"/>
-      <c r="F46" s="68" t="inlineStr">
+    <row r="46" ht="15.75" customHeight="1" s="146">
+      <c r="A46" s="155" t="n"/>
+      <c r="B46" s="151" t="n"/>
+      <c r="C46" s="22" t="n"/>
+      <c r="D46" s="151" t="n"/>
+      <c r="E46" s="151" t="n"/>
+      <c r="F46" s="23" t="inlineStr">
         <is>
           <t>8,3</t>
         </is>
       </c>
-      <c r="G46" s="68" t="inlineStr">
+      <c r="G46" s="23" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="H46" s="67" t="n"/>
-      <c r="I46" s="248" t="n"/>
-      <c r="J46" s="248" t="n"/>
-      <c r="K46" s="68" t="inlineStr">
+      <c r="H46" s="22" t="n"/>
+      <c r="I46" s="151" t="n"/>
+      <c r="J46" s="151" t="n"/>
+      <c r="K46" s="23" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="L46" s="78" t="inlineStr">
+      <c r="L46" s="27" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="15.6" customHeight="1" s="243">
-      <c r="A47" s="249" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="146">
+      <c r="A47" s="152" t="inlineStr">
         <is>
           <t>22 Ш</t>
         </is>
       </c>
-      <c r="B47" s="250" t="n"/>
-      <c r="C47" s="54" t="inlineStr">
-        <is>
-          <t>26692</t>
-        </is>
-      </c>
-      <c r="D47" s="251" t="n"/>
-      <c r="E47" s="251" t="n"/>
-      <c r="F47" s="55" t="inlineStr">
+      <c r="B47" s="153" t="n"/>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="D47" s="154" t="n"/>
+      <c r="E47" s="154" t="n"/>
+      <c r="F47" s="7" t="inlineStr">
         <is>
           <t>09:21</t>
         </is>
       </c>
-      <c r="G47" s="55" t="inlineStr">
+      <c r="G47" s="7" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="H47" s="54" t="inlineStr">
-        <is>
-          <t>27440</t>
-        </is>
-      </c>
-      <c r="I47" s="251" t="n"/>
-      <c r="J47" s="251" t="n"/>
-      <c r="K47" s="55" t="inlineStr">
+      <c r="H47" s="6" t="inlineStr">
+        <is>
+          <t>12258</t>
+        </is>
+      </c>
+      <c r="I47" s="154" t="n"/>
+      <c r="J47" s="154" t="n"/>
+      <c r="K47" s="7" t="inlineStr">
         <is>
           <t>17:55</t>
         </is>
       </c>
-      <c r="L47" s="75" t="inlineStr">
+      <c r="L47" s="24" t="inlineStr">
         <is>
           <t>01:18</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="15.6" customHeight="1" s="243">
-      <c r="A48" s="252" t="n"/>
-      <c r="B48" s="248" t="n"/>
-      <c r="C48" s="58" t="n"/>
-      <c r="D48" s="248" t="n"/>
-      <c r="E48" s="248" t="n"/>
-      <c r="F48" s="59" t="inlineStr">
+    <row r="48" ht="15.75" customHeight="1" s="146">
+      <c r="A48" s="155" t="n"/>
+      <c r="B48" s="151" t="n"/>
+      <c r="C48" s="10" t="n"/>
+      <c r="D48" s="151" t="n"/>
+      <c r="E48" s="151" t="n"/>
+      <c r="F48" s="11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G48" s="59" t="inlineStr">
+      <c r="G48" s="11" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H48" s="58" t="n"/>
-      <c r="I48" s="248" t="n"/>
-      <c r="J48" s="248" t="n"/>
-      <c r="K48" s="59" t="inlineStr">
+      <c r="H48" s="10" t="n"/>
+      <c r="I48" s="151" t="n"/>
+      <c r="J48" s="151" t="n"/>
+      <c r="K48" s="11" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="L48" s="76" t="inlineStr">
+      <c r="L48" s="25" t="inlineStr">
         <is>
           <t>8,2</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="15.6" customHeight="1" s="243">
-      <c r="A49" s="249" t="inlineStr">
+    <row r="49" ht="15.75" customHeight="1" s="146">
+      <c r="A49" s="152" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B49" s="250" t="n"/>
-      <c r="C49" s="54" t="n"/>
-      <c r="D49" s="251" t="n"/>
-      <c r="E49" s="251" t="n"/>
-      <c r="F49" s="55" t="n"/>
-      <c r="G49" s="55" t="n"/>
-      <c r="H49" s="54" t="inlineStr">
-        <is>
-          <t>27581</t>
-        </is>
-      </c>
-      <c r="I49" s="251" t="n"/>
-      <c r="J49" s="251" t="n"/>
-      <c r="K49" s="55" t="inlineStr">
+      <c r="B49" s="153" t="n"/>
+      <c r="C49" s="6" t="n"/>
+      <c r="D49" s="154" t="n"/>
+      <c r="E49" s="154" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="6" t="inlineStr">
+        <is>
+          <t>9332</t>
+        </is>
+      </c>
+      <c r="I49" s="154" t="n"/>
+      <c r="J49" s="154" t="n"/>
+      <c r="K49" s="7" t="inlineStr">
         <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="L49" s="75" t="inlineStr">
+      <c r="L49" s="24" t="inlineStr">
         <is>
           <t>21:48</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15.6" customHeight="1" s="243">
-      <c r="A50" s="252" t="n"/>
-      <c r="B50" s="248" t="n"/>
-      <c r="C50" s="58" t="n"/>
-      <c r="D50" s="248" t="n"/>
-      <c r="E50" s="248" t="n"/>
-      <c r="F50" s="59" t="n"/>
-      <c r="G50" s="59" t="n"/>
-      <c r="H50" s="58" t="n"/>
-      <c r="I50" s="248" t="n"/>
-      <c r="J50" s="248" t="n"/>
-      <c r="K50" s="59" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="146">
+      <c r="A50" s="155" t="n"/>
+      <c r="B50" s="151" t="n"/>
+      <c r="C50" s="10" t="n"/>
+      <c r="D50" s="151" t="n"/>
+      <c r="E50" s="151" t="n"/>
+      <c r="F50" s="11" t="n"/>
+      <c r="G50" s="11" t="n"/>
+      <c r="H50" s="10" t="n"/>
+      <c r="I50" s="151" t="n"/>
+      <c r="J50" s="151" t="n"/>
+      <c r="K50" s="11" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="L50" s="76" t="inlineStr">
+      <c r="L50" s="25" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
